--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1783325.962781964</v>
+        <v>1781073.883070756</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283196</v>
+        <v>416855.1052283177</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>151.7611701629544</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>72.91449928093513</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>91.92263582392312</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>105.3804150401589</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>399.957146489229</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -950,19 +950,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>109.0497360705513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.76697517902097</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>150.3013276789174</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>93.52676208877436</v>
       </c>
       <c r="C8" t="n">
-        <v>125.0816591241457</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>160.2383728284217</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>89.28266377778662</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922673</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>38.37250637580914</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,16 +1582,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>273.4963050953335</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763449</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>-4.147674796210292e-12</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>194.5707234541129</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1895,7 +1895,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784682</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>55.30088041042237</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>166.3651772885446</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>142.6584215897762</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.05806357631725</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503986</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890358</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,13 +2555,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,10 +2719,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>139.5115415340538</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>99.21841339139942</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>93.62264337260247</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,7 +2962,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.703916880933</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.0780236353764</v>
+        <v>179.9868975105686</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>21.44532649588036</v>
+        <v>121.8000472740365</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.23631477518851</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.405450327296</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>242.9192109362948</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>124.412118557032</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>142.6584215897758</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,13 +3955,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>6.434538210426839</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>939.4077790033348</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3251.95481223449</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3251.95481223449</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2998.424335508326</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2667.361448164755</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2314.592792894641</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1941.127034633561</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1941.127034633561</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>474.5166334391246</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C4" t="n">
-        <v>305.5804505112177</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450114</v>
+        <v>724.6116848987839</v>
       </c>
       <c r="T4" t="n">
-        <v>729.2011216450114</v>
+        <v>502.8450694683099</v>
       </c>
       <c r="U4" t="n">
-        <v>729.2011216450114</v>
+        <v>502.8450694683099</v>
       </c>
       <c r="V4" t="n">
-        <v>474.5166334391246</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W4" t="n">
-        <v>474.5166334391246</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X4" t="n">
-        <v>474.5166334391246</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y4" t="n">
-        <v>474.5166334391246</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>817.0352339990388</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>817.0352339990388</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>810.0897332498354</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4598,19 +4598,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y5" t="n">
-        <v>1941.127034633561</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4641,25 +4641,25 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>846.3749096777597</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>677.4387267498528</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4750,25 +4750,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.509627919559</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
         <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4817,37 +4817,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919559</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="9">
@@ -4875,10 +4875,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.6966252986346</v>
+        <v>228.3690586831144</v>
       </c>
       <c r="C10" t="n">
-        <v>156.6966252986346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>156.6966252986346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>156.6966252986346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>156.6966252986346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>156.6966252986346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>156.6966252986346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596504</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>639.3706644025388</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U10" t="n">
-        <v>639.3706644025388</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="V10" t="n">
-        <v>384.6861761966519</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="W10" t="n">
-        <v>384.6861761966519</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="X10" t="n">
-        <v>156.6966252986346</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="Y10" t="n">
-        <v>156.6966252986346</v>
+        <v>410.0175235133541</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5066,13 +5066,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1552.432392194326</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.3544215660705</v>
+        <v>951.7772127656144</v>
       </c>
       <c r="C13" t="n">
-        <v>612.4182386381636</v>
+        <v>782.8410298377075</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>632.7243904253718</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429787</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429787</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2408.202976129949</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2225.348141784853</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2005.746676807794</v>
       </c>
       <c r="U13" t="n">
-        <v>1701.202186474818</v>
+        <v>1716.671450151992</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.202186474818</v>
+        <v>1461.986961946105</v>
       </c>
       <c r="W13" t="n">
-        <v>1411.785016437858</v>
+        <v>1172.569791909144</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.79546553984</v>
+        <v>1172.569791909144</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.0028863963103</v>
+        <v>951.7772127656144</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961526</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0193492433381</v>
+        <v>408.9258559154809</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>408.9258559154809</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330878</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>947.7481113147751</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>726.955532171245</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>231.762841562101</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>231.762841562101</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797747</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1587.385923977512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>991.7436897307817</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1173.392154561021</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,19 +5975,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>943.510265746755</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>701.4712640439268</v>
+        <v>695.5020655703132</v>
       </c>
       <c r="C28" t="n">
-        <v>532.5350811160199</v>
+        <v>526.5658826424063</v>
       </c>
       <c r="D28" t="n">
-        <v>382.4184417036842</v>
+        <v>376.4492432300706</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
         <v>235.5284942057738</v>
@@ -6376,58 +6376,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y28" t="n">
-        <v>883.1197288741665</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6473,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647236</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579358</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373471</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336511</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438493</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949633</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>315.9123021921482</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921482</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>734.4896977334693</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6926,58 +6926,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.3929232910542</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782971</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038358</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W37" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273895</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803936</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.155464951614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>579.155464951614</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>726.9555321712448</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>558.019349243338</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310022</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310022</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258097</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602295</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396408</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359447</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X40" t="n">
-        <v>983.34034846143</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693178999</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="41">
@@ -7397,40 +7397,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7451,7 +7451,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096656</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.644273983533</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7582,37 +7582,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2302.863667833011</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2083.262202855953</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1794.18697620015</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1539.502487994263</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W43" t="n">
-        <v>1250.085317957303</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X43" t="n">
-        <v>1250.085317957303</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.292738813773</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
@@ -7722,16 +7722,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239596</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438171</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>558.0193492433381</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2190.563011941682</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.00274033431251</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>12.68816929391062</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.36835372228298</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>31.13893193492422</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>84.99383243580149</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>85.77246603528337</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>24.58839950885161</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>84.99383243580198</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84.77391660562004</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844822922</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>6.922421112515337</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922704</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>119.3662399606954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>73.62417772602537</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.8807364711618</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.506629716718351</v>
+        <v>38.59775584152624</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>145.8014946027475</v>
+        <v>45.44677382459132</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.5956654067488</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.26526345294937</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>15.88259428919189</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>38.36786441186882</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,13 +25843,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>210.9709121168614</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>881711.3058620399</v>
+        <v>881711.30586204</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>881711.30586204</v>
+        <v>881711.3058620399</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>881711.3058620397</v>
+        <v>881711.3058620399</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583915</v>
-      </c>
-      <c r="C2" t="n">
-        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583915</v>
@@ -26323,37 +26323,37 @@
         <v>544823.9547907542</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.954790754</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="N2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="O2" t="n">
-        <v>544823.9547907542</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.620387699105777e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405265</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26430,10 +26430,10 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
+        <v>14826.6960418674</v>
+      </c>
+      <c r="H4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14826.69604186734</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
@@ -26445,7 +26445,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186731</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-976072.2357346469</v>
+        <v>-976072.2357346467</v>
       </c>
       <c r="C6" t="n">
-        <v>352672.5099929455</v>
+        <v>352672.5099929452</v>
       </c>
       <c r="D6" t="n">
         <v>352672.5099929459</v>
       </c>
       <c r="E6" t="n">
-        <v>103462.2671176241</v>
+        <v>103427.5291921882</v>
       </c>
       <c r="F6" t="n">
-        <v>428874.7289249795</v>
+        <v>428839.9909995443</v>
       </c>
       <c r="G6" t="n">
-        <v>428874.7289249797</v>
+        <v>428839.9909995437</v>
       </c>
       <c r="H6" t="n">
-        <v>428874.7289249795</v>
+        <v>428839.9909995437</v>
       </c>
       <c r="I6" t="n">
-        <v>428874.7289249792</v>
+        <v>428839.9909995437</v>
       </c>
       <c r="J6" t="n">
-        <v>211343.5265277019</v>
+        <v>211308.7886022663</v>
       </c>
       <c r="K6" t="n">
-        <v>428874.7289249795</v>
+        <v>428839.9909995436</v>
       </c>
       <c r="L6" t="n">
-        <v>428874.7289249795</v>
+        <v>428839.9909995436</v>
       </c>
       <c r="M6" t="n">
-        <v>343819.7009894676</v>
+        <v>343784.963064032</v>
       </c>
       <c r="N6" t="n">
-        <v>428874.7289249798</v>
+        <v>428839.990999544</v>
       </c>
       <c r="O6" t="n">
-        <v>428874.7289249793</v>
+        <v>428839.9909995436</v>
       </c>
       <c r="P6" t="n">
-        <v>428874.7289249797</v>
+        <v>428839.9909995436</v>
       </c>
     </row>
   </sheetData>
@@ -26771,7 +26771,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26808,19 +26808,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>202.9218714577285</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>36.2732625072407</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>56.69283719428924</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>84.388610291283</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>10.96457916422446</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>277.1882025855023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.0650050029163</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,13 +27822,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>75.40832771011975</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>289.2070795747062</v>
       </c>
       <c r="C8" t="n">
-        <v>240.1912326468618</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>7.008448270206088</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>7.069756632051494</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-8.207266606532238e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29259,7 +29259,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -29275,13 +29275,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29445,7 +29445,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30432,7 +30432,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-7.729757574755542e-12</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>-8.264734206300728e-14</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,10 +32075,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32087,13 +32087,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>463.4318227833011</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32312,25 +32312,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32567,7 +32567,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>506.5895320981981</v>
+        <v>272.756932936465</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>729.0844763571695</v>
+        <v>269.1634560719501</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>658.2124561388958</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>452.8027404478645</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>360.3952288121461</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>393.3904345522222</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862118</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>536.3866168795502</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34044,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34208,22 +34208,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>231.5286848890169</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>752.2150000824574</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214699</v>
@@ -34232,7 +34232,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34375,7 +34375,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159428</v>
@@ -34442,19 +34442,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>395.1848490935915</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35723,10 +35723,10 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35735,13 +35735,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>320.8355783388566</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
@@ -35960,25 +35960,25 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36215,7 +36215,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>368.0351523183239</v>
+        <v>134.2025531565909</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>586.9504424351511</v>
+        <v>127.0294221499318</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066267</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>526.8707440555626</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>310.2064960034201</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998944</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>222.5537898377871</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295474</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>405.0449047962169</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>92.97430510914269</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>620.8732879991242</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071396</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060439</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38023,7 +38023,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193518</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>253.0508151715732</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
